--- a/src/public/uploads/data.xlsx
+++ b/src/public/uploads/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\THIAGO\Documents\DriadeLdap\src\public\uploads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thiago\Documents\DriadeLdap\src\public\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A6527CD-ECF7-48A2-A57D-D6F240B3E7C0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79FC5219-8755-456B-9773-8BB26013DD91}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9105" yWindow="5625" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="teste" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>Cap</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>WAR NAME</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -905,7 +908,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -950,6 +953,11 @@
         <v>999999999</v>
       </c>
     </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+    </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
